--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j0hn\Documents\Selenium\SeleniumTcs\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j0hn\Desktop\SeleniumShop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320A991E-EAC2-4C85-A4D5-EB110979E2E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF47938B-69CF-4611-923F-84D046BE8DB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="9840" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -114,7 +114,7 @@
     <t>Cañar</t>
   </si>
   <si>
-    <t>testtestdefst@kmail.es</t>
+    <t>testtqa@kmail.es</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>1704997012</v>
+        <v>1001934767</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
